--- a/docs/punishTask_bf_neurons.xlsx
+++ b/docs/punishTask_bf_neurons.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cut" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="106">
   <si>
     <t>dir</t>
   </si>
@@ -333,6 +334,15 @@
   </si>
   <si>
     <t>pek503E</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>peek740E</t>
   </si>
 </sst>
 </file>
@@ -650,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,9 +671,10 @@
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,8 +693,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -702,13 +716,16 @@
       <c r="F2">
         <v>-999</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -722,13 +739,16 @@
       <c r="F3">
         <v>-999</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -742,13 +762,16 @@
       <c r="F4">
         <v>-999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -762,13 +785,16 @@
       <c r="F5">
         <v>-999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -782,13 +808,16 @@
       <c r="F6">
         <v>-999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -802,13 +831,1122 @@
       <c r="F7">
         <v>-999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>-999</v>
+      </c>
+      <c r="E8">
+        <v>-999</v>
+      </c>
+      <c r="F8">
+        <v>-999</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>-999</v>
+      </c>
+      <c r="E9">
+        <v>-999</v>
+      </c>
+      <c r="F9">
+        <v>-999</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>-999</v>
+      </c>
+      <c r="E10">
+        <v>-999</v>
+      </c>
+      <c r="F10">
+        <v>-999</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>-999</v>
+      </c>
+      <c r="E11">
+        <v>-999</v>
+      </c>
+      <c r="F11">
+        <v>-999</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>-999</v>
+      </c>
+      <c r="E12">
+        <v>-999</v>
+      </c>
+      <c r="F12">
+        <v>-999</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>-999</v>
+      </c>
+      <c r="E13">
+        <v>-999</v>
+      </c>
+      <c r="F13">
+        <v>-999</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>-999</v>
+      </c>
+      <c r="E14">
+        <v>-999</v>
+      </c>
+      <c r="F14">
+        <v>-999</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>-999</v>
+      </c>
+      <c r="E15">
+        <v>-999</v>
+      </c>
+      <c r="F15">
+        <v>-999</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>-999</v>
+      </c>
+      <c r="E16">
+        <v>-999</v>
+      </c>
+      <c r="F16">
+        <v>-999</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>-999</v>
+      </c>
+      <c r="E17">
+        <v>-999</v>
+      </c>
+      <c r="F17">
+        <v>-999</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>-999</v>
+      </c>
+      <c r="E18">
+        <v>-999</v>
+      </c>
+      <c r="F18">
+        <v>-999</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>-999</v>
+      </c>
+      <c r="E19">
+        <v>-999</v>
+      </c>
+      <c r="F19">
+        <v>-999</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>-999</v>
+      </c>
+      <c r="E20">
+        <v>-999</v>
+      </c>
+      <c r="F20">
+        <v>-999</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>-999</v>
+      </c>
+      <c r="E21">
+        <v>-999</v>
+      </c>
+      <c r="F21">
+        <v>-999</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>-999</v>
+      </c>
+      <c r="E22">
+        <v>-999</v>
+      </c>
+      <c r="F22">
+        <v>-999</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>-999</v>
+      </c>
+      <c r="E23">
+        <v>-999</v>
+      </c>
+      <c r="F23">
+        <v>-999</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>-999</v>
+      </c>
+      <c r="E24">
+        <v>-999</v>
+      </c>
+      <c r="F24">
+        <v>-999</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>-999</v>
+      </c>
+      <c r="E25">
+        <v>-999</v>
+      </c>
+      <c r="F25">
+        <v>-999</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>-999</v>
+      </c>
+      <c r="E26">
+        <v>-999</v>
+      </c>
+      <c r="F26">
+        <v>-999</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>-999</v>
+      </c>
+      <c r="E27">
+        <v>-999</v>
+      </c>
+      <c r="F27">
+        <v>-999</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>-999</v>
+      </c>
+      <c r="E28">
+        <v>-999</v>
+      </c>
+      <c r="F28">
+        <v>-999</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>-999</v>
+      </c>
+      <c r="E29">
+        <v>-999</v>
+      </c>
+      <c r="F29">
+        <v>-999</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>-999</v>
+      </c>
+      <c r="E30">
+        <v>-999</v>
+      </c>
+      <c r="F30">
+        <v>-999</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>-999</v>
+      </c>
+      <c r="E31">
+        <v>-999</v>
+      </c>
+      <c r="F31">
+        <v>-999</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>-999</v>
+      </c>
+      <c r="E32">
+        <v>-999</v>
+      </c>
+      <c r="F32">
+        <v>-999</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>-999</v>
+      </c>
+      <c r="E33">
+        <v>-999</v>
+      </c>
+      <c r="F33">
+        <v>-999</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>-999</v>
+      </c>
+      <c r="E34">
+        <v>-999</v>
+      </c>
+      <c r="F34">
+        <v>-999</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>-999</v>
+      </c>
+      <c r="E35">
+        <v>-999</v>
+      </c>
+      <c r="F35">
+        <v>-999</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>-999</v>
+      </c>
+      <c r="E36">
+        <v>-999</v>
+      </c>
+      <c r="F36">
+        <v>-999</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>-999</v>
+      </c>
+      <c r="E37">
+        <v>-999</v>
+      </c>
+      <c r="F37">
+        <v>-999</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>-999</v>
+      </c>
+      <c r="E38">
+        <v>-999</v>
+      </c>
+      <c r="F38">
+        <v>-999</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>-999</v>
+      </c>
+      <c r="E39">
+        <v>-999</v>
+      </c>
+      <c r="F39">
+        <v>-999</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>-999</v>
+      </c>
+      <c r="E40">
+        <v>-999</v>
+      </c>
+      <c r="F40">
+        <v>-999</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>-999</v>
+      </c>
+      <c r="E41">
+        <v>-999</v>
+      </c>
+      <c r="F41">
+        <v>-999</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>-999</v>
+      </c>
+      <c r="E42">
+        <v>-999</v>
+      </c>
+      <c r="F42">
+        <v>-999</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>-999</v>
+      </c>
+      <c r="E43">
+        <v>-999</v>
+      </c>
+      <c r="F43">
+        <v>-999</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>-999</v>
+      </c>
+      <c r="E44">
+        <v>-999</v>
+      </c>
+      <c r="F44">
+        <v>-999</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>-999</v>
+      </c>
+      <c r="E45">
+        <v>-999</v>
+      </c>
+      <c r="F45">
+        <v>-999</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>-999</v>
+      </c>
+      <c r="E46">
+        <v>-999</v>
+      </c>
+      <c r="F46">
+        <v>-999</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>-999</v>
+      </c>
+      <c r="E47">
+        <v>-999</v>
+      </c>
+      <c r="F47">
+        <v>-999</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H96">
+    <sortCondition descending="1" ref="G2:G96"/>
+    <sortCondition ref="C2:C96"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>-999</v>
+      </c>
+      <c r="E2">
+        <v>-999</v>
+      </c>
+      <c r="F2">
+        <v>-999</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>-999</v>
+      </c>
+      <c r="E3">
+        <v>-999</v>
+      </c>
+      <c r="F3">
+        <v>-999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>-999</v>
+      </c>
+      <c r="E4">
+        <v>-999</v>
+      </c>
+      <c r="F4">
+        <v>-999</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>-999</v>
+      </c>
+      <c r="E5">
+        <v>-999</v>
+      </c>
+      <c r="F5">
+        <v>-999</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>-999</v>
+      </c>
+      <c r="E6">
+        <v>-999</v>
+      </c>
+      <c r="F6">
+        <v>-999</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>-999</v>
+      </c>
+      <c r="E7">
+        <v>-999</v>
+      </c>
+      <c r="F7">
+        <v>-999</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -822,13 +1960,16 @@
       <c r="F8">
         <v>-999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -842,13 +1983,16 @@
       <c r="F9">
         <v>-999</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -862,13 +2006,16 @@
       <c r="F10">
         <v>-999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -882,13 +2029,16 @@
       <c r="F11">
         <v>-999</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -902,13 +2052,16 @@
       <c r="F12">
         <v>-999</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -922,13 +2075,16 @@
       <c r="F13">
         <v>-999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -942,16 +2098,19 @@
       <c r="F14">
         <v>-999</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>-999</v>
@@ -962,16 +2121,19 @@
       <c r="F15">
         <v>-999</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>-999</v>
@@ -982,16 +2144,19 @@
       <c r="F16">
         <v>-999</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>-999</v>
@@ -1002,16 +2167,19 @@
       <c r="F17">
         <v>-999</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>-999</v>
@@ -1022,16 +2190,19 @@
       <c r="F18">
         <v>-999</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>-999</v>
@@ -1042,16 +2213,19 @@
       <c r="F19">
         <v>-999</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>-999</v>
@@ -1062,13 +2236,16 @@
       <c r="F20">
         <v>-999</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -1082,13 +2259,16 @@
       <c r="F21">
         <v>-999</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1102,13 +2282,16 @@
       <c r="F22">
         <v>-999</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1122,13 +2305,16 @@
       <c r="F23">
         <v>-999</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -1142,13 +2328,16 @@
       <c r="F24">
         <v>-999</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1162,13 +2351,16 @@
       <c r="F25">
         <v>-999</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1182,13 +2374,16 @@
       <c r="F26">
         <v>-999</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1202,13 +2397,16 @@
       <c r="F27">
         <v>-999</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1222,13 +2420,16 @@
       <c r="F28">
         <v>-999</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1242,13 +2443,16 @@
       <c r="F29">
         <v>-999</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1262,13 +2466,16 @@
       <c r="F30">
         <v>-999</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1282,13 +2489,16 @@
       <c r="F31">
         <v>-999</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1302,13 +2512,16 @@
       <c r="F32">
         <v>-999</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1322,13 +2535,16 @@
       <c r="F33">
         <v>-999</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1342,13 +2558,16 @@
       <c r="F34">
         <v>-999</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1362,13 +2581,16 @@
       <c r="F35">
         <v>-999</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1382,13 +2604,16 @@
       <c r="F36">
         <v>-999</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1402,13 +2627,16 @@
       <c r="F37">
         <v>-999</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1422,13 +2650,16 @@
       <c r="F38">
         <v>-999</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1442,13 +2673,16 @@
       <c r="F39">
         <v>-999</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1462,13 +2696,16 @@
       <c r="F40">
         <v>-999</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1482,13 +2719,16 @@
       <c r="F41">
         <v>-999</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1502,13 +2742,16 @@
       <c r="F42">
         <v>-999</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1522,13 +2765,16 @@
       <c r="F43">
         <v>-999</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1542,13 +2788,16 @@
       <c r="F44">
         <v>-999</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1562,13 +2811,16 @@
       <c r="F45">
         <v>-999</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1582,13 +2834,16 @@
       <c r="F46">
         <v>-999</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1602,13 +2857,16 @@
       <c r="F47">
         <v>-999</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1622,13 +2880,16 @@
       <c r="F48">
         <v>-999</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1642,13 +2903,16 @@
       <c r="F49">
         <v>-999</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1662,925 +2926,8 @@
       <c r="F50">
         <v>-999</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51">
-        <v>-999</v>
-      </c>
-      <c r="E51">
-        <v>-999</v>
-      </c>
-      <c r="F51">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>-999</v>
-      </c>
-      <c r="E52">
-        <v>-999</v>
-      </c>
-      <c r="F52">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>-999</v>
-      </c>
-      <c r="E53">
-        <v>-999</v>
-      </c>
-      <c r="F53">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54">
-        <v>-999</v>
-      </c>
-      <c r="E54">
-        <v>-999</v>
-      </c>
-      <c r="F54">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55">
-        <v>-999</v>
-      </c>
-      <c r="E55">
-        <v>-999</v>
-      </c>
-      <c r="F55">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56">
-        <v>-999</v>
-      </c>
-      <c r="E56">
-        <v>-999</v>
-      </c>
-      <c r="F56">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57">
-        <v>-999</v>
-      </c>
-      <c r="E57">
-        <v>-999</v>
-      </c>
-      <c r="F57">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58">
-        <v>-999</v>
-      </c>
-      <c r="E58">
-        <v>-999</v>
-      </c>
-      <c r="F58">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59">
-        <v>-999</v>
-      </c>
-      <c r="E59">
-        <v>-999</v>
-      </c>
-      <c r="F59">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60">
-        <v>-999</v>
-      </c>
-      <c r="E60">
-        <v>-999</v>
-      </c>
-      <c r="F60">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61">
-        <v>-999</v>
-      </c>
-      <c r="E61">
-        <v>-999</v>
-      </c>
-      <c r="F61">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62">
-        <v>-999</v>
-      </c>
-      <c r="E62">
-        <v>-999</v>
-      </c>
-      <c r="F62">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63">
-        <v>-999</v>
-      </c>
-      <c r="E63">
-        <v>-999</v>
-      </c>
-      <c r="F63">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64">
-        <v>-999</v>
-      </c>
-      <c r="E64">
-        <v>-999</v>
-      </c>
-      <c r="F64">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65">
-        <v>-999</v>
-      </c>
-      <c r="E65">
-        <v>-999</v>
-      </c>
-      <c r="F65">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66">
-        <v>-999</v>
-      </c>
-      <c r="E66">
-        <v>-999</v>
-      </c>
-      <c r="F66">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67">
-        <v>-999</v>
-      </c>
-      <c r="E67">
-        <v>-999</v>
-      </c>
-      <c r="F67">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68">
-        <v>-999</v>
-      </c>
-      <c r="E68">
-        <v>-999</v>
-      </c>
-      <c r="F68">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69">
-        <v>-999</v>
-      </c>
-      <c r="E69">
-        <v>-999</v>
-      </c>
-      <c r="F69">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70">
-        <v>-999</v>
-      </c>
-      <c r="E70">
-        <v>-999</v>
-      </c>
-      <c r="F70">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71">
-        <v>-999</v>
-      </c>
-      <c r="E71">
-        <v>-999</v>
-      </c>
-      <c r="F71">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72">
-        <v>-999</v>
-      </c>
-      <c r="E72">
-        <v>-999</v>
-      </c>
-      <c r="F72">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73">
-        <v>-999</v>
-      </c>
-      <c r="E73">
-        <v>-999</v>
-      </c>
-      <c r="F73">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74">
-        <v>-999</v>
-      </c>
-      <c r="E74">
-        <v>-999</v>
-      </c>
-      <c r="F74">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75">
-        <v>-999</v>
-      </c>
-      <c r="E75">
-        <v>-999</v>
-      </c>
-      <c r="F75">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76">
-        <v>-999</v>
-      </c>
-      <c r="E76">
-        <v>-999</v>
-      </c>
-      <c r="F76">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77">
-        <v>-999</v>
-      </c>
-      <c r="E77">
-        <v>-999</v>
-      </c>
-      <c r="F77">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>-999</v>
-      </c>
-      <c r="E78">
-        <v>-999</v>
-      </c>
-      <c r="F78">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79">
-        <v>-999</v>
-      </c>
-      <c r="E79">
-        <v>-999</v>
-      </c>
-      <c r="F79">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80">
-        <v>-999</v>
-      </c>
-      <c r="E80">
-        <v>-999</v>
-      </c>
-      <c r="F80">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81">
-        <v>-999</v>
-      </c>
-      <c r="E81">
-        <v>-999</v>
-      </c>
-      <c r="F81">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82">
-        <v>-999</v>
-      </c>
-      <c r="E82">
-        <v>-999</v>
-      </c>
-      <c r="F82">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83">
-        <v>-999</v>
-      </c>
-      <c r="E83">
-        <v>-999</v>
-      </c>
-      <c r="F83">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84">
-        <v>-999</v>
-      </c>
-      <c r="E84">
-        <v>-999</v>
-      </c>
-      <c r="F84">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" t="s">
-        <v>90</v>
-      </c>
-      <c r="C85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85">
-        <v>-999</v>
-      </c>
-      <c r="E85">
-        <v>-999</v>
-      </c>
-      <c r="F85">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86">
-        <v>-999</v>
-      </c>
-      <c r="E86">
-        <v>-999</v>
-      </c>
-      <c r="F86">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87">
-        <v>-999</v>
-      </c>
-      <c r="E87">
-        <v>-999</v>
-      </c>
-      <c r="F87">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88">
-        <v>-999</v>
-      </c>
-      <c r="E88">
-        <v>-999</v>
-      </c>
-      <c r="F88">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>94</v>
-      </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89">
-        <v>-999</v>
-      </c>
-      <c r="E89">
-        <v>-999</v>
-      </c>
-      <c r="F89">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90">
-        <v>-999</v>
-      </c>
-      <c r="E90">
-        <v>-999</v>
-      </c>
-      <c r="F90">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91">
-        <v>-999</v>
-      </c>
-      <c r="E91">
-        <v>-999</v>
-      </c>
-      <c r="F91">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92">
-        <v>-999</v>
-      </c>
-      <c r="E92">
-        <v>-999</v>
-      </c>
-      <c r="F92">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93">
-        <v>-999</v>
-      </c>
-      <c r="E93">
-        <v>-999</v>
-      </c>
-      <c r="F93">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94">
-        <v>-999</v>
-      </c>
-      <c r="E94">
-        <v>-999</v>
-      </c>
-      <c r="F94">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" t="s">
-        <v>99</v>
-      </c>
-      <c r="C95" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95">
-        <v>-999</v>
-      </c>
-      <c r="E95">
-        <v>-999</v>
-      </c>
-      <c r="F95">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96">
-        <v>-999</v>
-      </c>
-      <c r="E96">
-        <v>-999</v>
-      </c>
-      <c r="F96">
-        <v>-999</v>
+      <c r="G50">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
